--- a/config_4.13/fish_3d_yutu_random_3.xlsx
+++ b/config_4.13/fish_3d_yutu_random_3.xlsx
@@ -426,31 +426,31 @@
     <t>常规活动鱼boss</t>
   </si>
   <si>
-    <t>37,38,37,38,37,38,145,146,192,193,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>26,27,64,65,66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,36,34,36,34,36,143,144,190,191,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄金鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40,40,40,147,194,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>群鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>55,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>196,197,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>198,199,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,201,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1247,8 +1247,8 @@
       <c r="B2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>104</v>
+      <c r="C2" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="D2" s="11">
         <v>180</v>
@@ -1269,8 +1269,8 @@
       <c r="B3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>102</v>
+      <c r="C3" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="D3" s="11">
         <v>180</v>
@@ -1289,10 +1289,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="D4" s="11">
         <v>200</v>
@@ -1372,10 +1372,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="11">
         <v>280</v>
@@ -1440,7 +1440,7 @@
         <v>70</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D11">
         <v>1500</v>
